--- a/prediksi/data/Dataset Cuaca Fix.xlsx
+++ b/prediksi/data/Dataset Cuaca Fix.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrilia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6574F-E26D-40B8-AA84-13E11D8DF318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC979C29-FB01-445A-8C77-A5F014B27DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -977,6 +978,9 @@
     <t xml:space="preserve"> 2015-10-30</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2015-10-31</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2015-11-01</t>
   </si>
   <si>
@@ -1067,115 +1071,120 @@
     <t xml:space="preserve"> 2015-11-30</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2015-11-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015-11-62</t>
+    <t xml:space="preserve"> 2015-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-12-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1217,10 +1226,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1241,18 +1251,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8257665B-2846-4C57-B7D5-303C1D654560}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1568,11 +1627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H370"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747141C-D2DE-4B75-A295-6EDD6DED5096}">
+  <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1643,6 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2412,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2573,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,7 +3045,7 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3079,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3654,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3677,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3746,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3884,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3930,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4091,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4114,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4137,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4413,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4482,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4505,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4551,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4620,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4643,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4666,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4689,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4735,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5011,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5080,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5172,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,7 +5483,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5494,7 +5552,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,7 +5782,7 @@
         <v>7</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,7 +6035,7 @@
         <v>5</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6000,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6046,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6069,7 +6127,7 @@
         <v>6</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6345,7 +6403,7 @@
         <v>4</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,7 +6429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -6394,7 +6452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -6414,10 +6472,10 @@
         <v>5</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -6440,7 +6498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -6462,282 +6520,281 @@
       <c r="G212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="8">
         <v>27.4</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="8">
         <v>77</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="8">
         <v>1011.5</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="8">
         <v>5</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G213" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="8">
         <v>26.7</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="8">
         <v>83</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="8">
         <v>1012</v>
       </c>
-      <c r="F214" s="1">
-        <v>3</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F214" s="8">
+        <v>3</v>
+      </c>
+      <c r="G214" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="8">
         <v>26.9</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="8">
         <v>82</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="8">
         <v>1011.5</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="8">
         <v>4</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G215" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="8">
         <v>26</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="8">
         <v>86</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="8">
         <v>1012</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="8">
         <v>2</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G216" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="9">
         <v>27.5</v>
       </c>
-      <c r="D217" s="8">
+      <c r="D217" s="9">
         <v>74</v>
       </c>
-      <c r="E217" s="8">
+      <c r="E217" s="9">
         <v>1011.2</v>
       </c>
-      <c r="F217" s="8">
+      <c r="F217" s="9">
         <v>4</v>
       </c>
-      <c r="G217" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G217" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C218" s="8">
+      <c r="C218" s="9">
         <v>26.9</v>
       </c>
-      <c r="D218" s="8">
+      <c r="D218" s="9">
         <v>78</v>
       </c>
-      <c r="E218" s="8">
+      <c r="E218" s="9">
         <v>1009.8</v>
       </c>
-      <c r="F218" s="8">
-        <v>3</v>
-      </c>
-      <c r="G218" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F218" s="9">
+        <v>3</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="9">
         <v>27.9</v>
       </c>
-      <c r="D219" s="8">
+      <c r="D219" s="9">
         <v>75</v>
       </c>
-      <c r="E219" s="8">
+      <c r="E219" s="9">
         <v>1008.9</v>
       </c>
-      <c r="F219" s="8">
+      <c r="F219" s="9">
         <v>5</v>
       </c>
-      <c r="G219" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G219" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C220" s="8">
+      <c r="C220" s="9">
         <v>26.1</v>
       </c>
-      <c r="D220" s="8">
+      <c r="D220" s="9">
         <v>85</v>
       </c>
-      <c r="E220" s="8">
+      <c r="E220" s="9">
         <v>1009.8</v>
       </c>
-      <c r="F220" s="8">
+      <c r="F220" s="9">
         <v>4</v>
       </c>
-      <c r="G220" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G220" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="8">
+      <c r="C221" s="9">
         <v>28.4</v>
       </c>
-      <c r="D221" s="8">
+      <c r="D221" s="9">
         <v>72</v>
       </c>
-      <c r="E221" s="8">
+      <c r="E221" s="9">
         <v>1008.6</v>
       </c>
-      <c r="F221" s="8">
+      <c r="F221" s="9">
         <v>6</v>
       </c>
-      <c r="G221" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G221" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C222" s="8">
+      <c r="C222" s="9">
         <v>27.6</v>
       </c>
-      <c r="D222" s="8">
+      <c r="D222" s="9">
         <v>82</v>
       </c>
-      <c r="E222" s="8">
+      <c r="E222" s="9">
         <v>1008</v>
       </c>
-      <c r="F222" s="8">
+      <c r="F222" s="9">
         <v>6</v>
       </c>
-      <c r="G222" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G222" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="9">
         <v>28.4</v>
       </c>
-      <c r="D223" s="8">
+      <c r="D223" s="9">
         <v>74</v>
       </c>
-      <c r="E223" s="8">
+      <c r="E223" s="9">
         <v>1009.5</v>
       </c>
-      <c r="F223" s="8">
+      <c r="F223" s="9">
         <v>7</v>
       </c>
-      <c r="G223" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G223" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="8">
+      <c r="C224" s="9">
         <v>27.7</v>
       </c>
-      <c r="D224" s="8">
+      <c r="D224" s="9">
         <v>75</v>
       </c>
-      <c r="E224" s="8">
+      <c r="E224" s="9">
         <v>1010.3</v>
       </c>
-      <c r="F224" s="8">
+      <c r="F224" s="9">
         <v>7</v>
       </c>
-      <c r="G224" s="8" t="s">
-        <v>36</v>
+      <c r="G224" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6747,19 +6804,19 @@
       <c r="B225" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C225" s="8">
+      <c r="C225" s="9">
         <v>27.6</v>
       </c>
-      <c r="D225" s="8">
+      <c r="D225" s="9">
         <v>78</v>
       </c>
-      <c r="E225" s="8">
+      <c r="E225" s="9">
         <v>1011.5</v>
       </c>
-      <c r="F225" s="8">
+      <c r="F225" s="9">
         <v>6</v>
       </c>
-      <c r="G225" s="8" t="s">
+      <c r="G225" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6770,19 +6827,19 @@
       <c r="B226" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C226" s="8">
+      <c r="C226" s="9">
         <v>28.4</v>
       </c>
-      <c r="D226" s="8">
+      <c r="D226" s="9">
         <v>77</v>
       </c>
-      <c r="E226" s="8">
+      <c r="E226" s="9">
         <v>1010.5</v>
       </c>
-      <c r="F226" s="8">
+      <c r="F226" s="9">
         <v>6</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="G226" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6793,19 +6850,19 @@
       <c r="B227" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C227" s="8">
+      <c r="C227" s="9">
         <v>28.3</v>
       </c>
-      <c r="D227" s="8">
+      <c r="D227" s="9">
         <v>76</v>
       </c>
-      <c r="E227" s="8">
+      <c r="E227" s="9">
         <v>1011</v>
       </c>
-      <c r="F227" s="8">
+      <c r="F227" s="9">
         <v>5</v>
       </c>
-      <c r="G227" s="8" t="s">
+      <c r="G227" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6816,19 +6873,19 @@
       <c r="B228" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C228" s="8">
+      <c r="C228" s="9">
         <v>28.2</v>
       </c>
-      <c r="D228" s="8">
+      <c r="D228" s="9">
         <v>76</v>
       </c>
-      <c r="E228" s="8">
+      <c r="E228" s="9">
         <v>1011.5</v>
       </c>
-      <c r="F228" s="8">
+      <c r="F228" s="9">
         <v>6</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G228" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6839,19 +6896,19 @@
       <c r="B229" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C229" s="8">
+      <c r="C229" s="9">
         <v>27.4</v>
       </c>
-      <c r="D229" s="8">
+      <c r="D229" s="9">
         <v>78</v>
       </c>
-      <c r="E229" s="8">
+      <c r="E229" s="9">
         <v>1012.2</v>
       </c>
-      <c r="F229" s="8">
+      <c r="F229" s="9">
         <v>6</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G229" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6862,19 +6919,19 @@
       <c r="B230" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C230" s="8">
+      <c r="C230" s="9">
         <v>28.1</v>
       </c>
-      <c r="D230" s="8">
+      <c r="D230" s="9">
         <v>71</v>
       </c>
-      <c r="E230" s="8">
+      <c r="E230" s="9">
         <v>1011.8</v>
       </c>
-      <c r="F230" s="8">
+      <c r="F230" s="9">
         <v>8</v>
       </c>
-      <c r="G230" s="8" t="s">
+      <c r="G230" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6885,19 +6942,19 @@
       <c r="B231" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C231" s="8">
+      <c r="C231" s="9">
         <v>27.5</v>
       </c>
-      <c r="D231" s="8">
+      <c r="D231" s="9">
         <v>72</v>
       </c>
-      <c r="E231" s="8">
+      <c r="E231" s="9">
         <v>1011.2</v>
       </c>
-      <c r="F231" s="8">
+      <c r="F231" s="9">
         <v>7</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G231" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6908,19 +6965,19 @@
       <c r="B232" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C232" s="9">
         <v>27.8</v>
       </c>
-      <c r="D232" s="8">
+      <c r="D232" s="9">
         <v>71</v>
       </c>
-      <c r="E232" s="8">
+      <c r="E232" s="9">
         <v>1011.5</v>
       </c>
-      <c r="F232" s="8">
+      <c r="F232" s="9">
         <v>5</v>
       </c>
-      <c r="G232" s="8" t="s">
+      <c r="G232" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6931,19 +6988,19 @@
       <c r="B233" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C233" s="8">
+      <c r="C233" s="9">
         <v>28.1</v>
       </c>
-      <c r="D233" s="8">
+      <c r="D233" s="9">
         <v>74</v>
       </c>
-      <c r="E233" s="8">
+      <c r="E233" s="9">
         <v>1011.1</v>
       </c>
-      <c r="F233" s="8">
+      <c r="F233" s="9">
         <v>5</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="G233" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6954,19 +7011,19 @@
       <c r="B234" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C234" s="8">
+      <c r="C234" s="9">
         <v>28.5</v>
       </c>
-      <c r="D234" s="8">
+      <c r="D234" s="9">
         <v>68</v>
       </c>
-      <c r="E234" s="8">
+      <c r="E234" s="9">
         <v>1010.9</v>
       </c>
-      <c r="F234" s="8">
+      <c r="F234" s="9">
         <v>7</v>
       </c>
-      <c r="G234" s="8" t="s">
+      <c r="G234" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6977,19 +7034,19 @@
       <c r="B235" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="9">
         <v>28.2</v>
       </c>
-      <c r="D235" s="8">
+      <c r="D235" s="9">
         <v>66</v>
       </c>
-      <c r="E235" s="8">
+      <c r="E235" s="9">
         <v>1010.6</v>
       </c>
-      <c r="F235" s="8">
+      <c r="F235" s="9">
         <v>7</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="G235" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7000,19 +7057,19 @@
       <c r="B236" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C236" s="8">
+      <c r="C236" s="9">
         <v>27.4</v>
       </c>
-      <c r="D236" s="8">
+      <c r="D236" s="9">
         <v>72</v>
       </c>
-      <c r="E236" s="8">
+      <c r="E236" s="9">
         <v>1011.2</v>
       </c>
-      <c r="F236" s="8">
+      <c r="F236" s="9">
         <v>6</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="G236" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7023,19 +7080,19 @@
       <c r="B237" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C237" s="8">
+      <c r="C237" s="9">
         <v>27.3</v>
       </c>
-      <c r="D237" s="8">
+      <c r="D237" s="9">
         <v>73</v>
       </c>
-      <c r="E237" s="8">
+      <c r="E237" s="9">
         <v>1011.7</v>
       </c>
-      <c r="F237" s="8">
+      <c r="F237" s="9">
         <v>7</v>
       </c>
-      <c r="G237" s="8" t="s">
+      <c r="G237" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7046,20 +7103,20 @@
       <c r="B238" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C238" s="8">
+      <c r="C238" s="9">
         <v>27.3</v>
       </c>
-      <c r="D238" s="8">
+      <c r="D238" s="9">
         <v>76</v>
       </c>
-      <c r="E238" s="8">
+      <c r="E238" s="9">
         <v>1011.1</v>
       </c>
-      <c r="F238" s="8">
+      <c r="F238" s="9">
         <v>7</v>
       </c>
-      <c r="G238" s="8" t="s">
-        <v>34</v>
+      <c r="G238" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7069,19 +7126,19 @@
       <c r="B239" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C239" s="9">
         <v>28</v>
       </c>
-      <c r="D239" s="8">
+      <c r="D239" s="9">
         <v>76</v>
       </c>
-      <c r="E239" s="8">
+      <c r="E239" s="9">
         <v>1011</v>
       </c>
-      <c r="F239" s="8">
+      <c r="F239" s="9">
         <v>6</v>
       </c>
-      <c r="G239" s="8" t="s">
+      <c r="G239" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7092,19 +7149,19 @@
       <c r="B240" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C240" s="8">
+      <c r="C240" s="9">
         <v>28.1</v>
       </c>
-      <c r="D240" s="8">
+      <c r="D240" s="9">
         <v>74</v>
       </c>
-      <c r="E240" s="8">
+      <c r="E240" s="9">
         <v>1011</v>
       </c>
-      <c r="F240" s="8">
+      <c r="F240" s="9">
         <v>7</v>
       </c>
-      <c r="G240" s="8" t="s">
+      <c r="G240" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7115,20 +7172,20 @@
       <c r="B241" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C241" s="8">
+      <c r="C241" s="9">
         <v>27.9</v>
       </c>
-      <c r="D241" s="8">
+      <c r="D241" s="9">
         <v>78</v>
       </c>
-      <c r="E241" s="8">
+      <c r="E241" s="9">
         <v>1011</v>
       </c>
-      <c r="F241" s="8">
+      <c r="F241" s="9">
         <v>7</v>
       </c>
-      <c r="G241" s="8" t="s">
-        <v>34</v>
+      <c r="G241" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,19 +7195,19 @@
       <c r="B242" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C242" s="8">
+      <c r="C242" s="9">
         <v>28.3</v>
       </c>
-      <c r="D242" s="8">
+      <c r="D242" s="9">
         <v>76</v>
       </c>
-      <c r="E242" s="8">
+      <c r="E242" s="9">
         <v>1010.9</v>
       </c>
-      <c r="F242" s="8">
+      <c r="F242" s="9">
         <v>6</v>
       </c>
-      <c r="G242" s="8" t="s">
+      <c r="G242" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7161,19 +7218,19 @@
       <c r="B243" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C243" s="8">
+      <c r="C243" s="9">
         <v>27.8</v>
       </c>
-      <c r="D243" s="8">
+      <c r="D243" s="9">
         <v>76</v>
       </c>
-      <c r="E243" s="8">
+      <c r="E243" s="9">
         <v>1012</v>
       </c>
-      <c r="F243" s="8">
+      <c r="F243" s="9">
         <v>8</v>
       </c>
-      <c r="G243" s="8" t="s">
+      <c r="G243" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7184,19 +7241,19 @@
       <c r="B244" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="9">
         <v>27.4</v>
       </c>
-      <c r="D244" s="8">
+      <c r="D244" s="9">
         <v>74</v>
       </c>
-      <c r="E244" s="8">
+      <c r="E244" s="9">
         <v>1011.8</v>
       </c>
-      <c r="F244" s="8">
+      <c r="F244" s="9">
         <v>7</v>
       </c>
-      <c r="G244" s="8" t="s">
+      <c r="G244" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7207,20 +7264,20 @@
       <c r="B245" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C245" s="8">
+      <c r="C245" s="9">
         <v>26.9</v>
       </c>
-      <c r="D245" s="8">
+      <c r="D245" s="9">
         <v>73</v>
       </c>
-      <c r="E245" s="8">
+      <c r="E245" s="9">
         <v>1011.4</v>
       </c>
-      <c r="F245" s="8">
+      <c r="F245" s="9">
         <v>7</v>
       </c>
-      <c r="G245" s="8" t="s">
-        <v>34</v>
+      <c r="G245" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7230,19 +7287,19 @@
       <c r="B246" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C246" s="8">
+      <c r="C246" s="9">
         <v>26.4</v>
       </c>
-      <c r="D246" s="8">
+      <c r="D246" s="9">
         <v>73</v>
       </c>
-      <c r="E246" s="8">
+      <c r="E246" s="9">
         <v>1011.5</v>
       </c>
-      <c r="F246" s="8">
+      <c r="F246" s="9">
         <v>7</v>
       </c>
-      <c r="G246" s="8" t="s">
+      <c r="G246" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7253,19 +7310,19 @@
       <c r="B247" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C247" s="8">
+      <c r="C247" s="9">
         <v>27.1</v>
       </c>
-      <c r="D247" s="8">
+      <c r="D247" s="9">
         <v>75</v>
       </c>
-      <c r="E247" s="8">
+      <c r="E247" s="9">
         <v>1012.5</v>
       </c>
-      <c r="F247" s="8">
+      <c r="F247" s="9">
         <v>7</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G247" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7276,19 +7333,19 @@
       <c r="B248" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C248" s="10">
         <v>27.6</v>
       </c>
-      <c r="D248" s="8">
+      <c r="D248" s="9">
         <v>73</v>
       </c>
-      <c r="E248" s="8">
+      <c r="E248" s="9">
         <v>1012.9</v>
       </c>
-      <c r="F248" s="8">
+      <c r="F248" s="9">
         <v>7</v>
       </c>
-      <c r="G248" s="8" t="s">
+      <c r="G248" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7299,19 +7356,19 @@
       <c r="B249" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="12">
         <v>27.8</v>
       </c>
-      <c r="D249" s="8">
+      <c r="D249" s="11">
         <v>73</v>
       </c>
-      <c r="E249" s="8">
+      <c r="E249" s="11">
         <v>1013.1</v>
       </c>
-      <c r="F249" s="8">
+      <c r="F249" s="11">
         <v>6</v>
       </c>
-      <c r="G249" s="8" t="s">
+      <c r="G249" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7322,19 +7379,19 @@
       <c r="B250" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="12">
         <v>27.2</v>
       </c>
-      <c r="D250" s="8">
+      <c r="D250" s="11">
         <v>73</v>
       </c>
-      <c r="E250" s="8">
+      <c r="E250" s="11">
         <v>1012.3</v>
       </c>
-      <c r="F250" s="8">
+      <c r="F250" s="11">
         <v>6</v>
       </c>
-      <c r="G250" s="8" t="s">
+      <c r="G250" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7345,19 +7402,19 @@
       <c r="B251" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="12">
         <v>27.6</v>
       </c>
-      <c r="D251" s="8">
+      <c r="D251" s="11">
         <v>73</v>
       </c>
-      <c r="E251" s="8">
+      <c r="E251" s="11">
         <v>1012.2</v>
       </c>
-      <c r="F251" s="8">
+      <c r="F251" s="11">
         <v>7</v>
       </c>
-      <c r="G251" s="8" t="s">
+      <c r="G251" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7368,19 +7425,19 @@
       <c r="B252" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="12">
         <v>27.4</v>
       </c>
-      <c r="D252" s="8">
+      <c r="D252" s="11">
         <v>75</v>
       </c>
-      <c r="E252" s="8">
+      <c r="E252" s="11">
         <v>1011.3</v>
       </c>
-      <c r="F252" s="8">
+      <c r="F252" s="11">
         <v>7</v>
       </c>
-      <c r="G252" s="8" t="s">
+      <c r="G252" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7391,19 +7448,19 @@
       <c r="B253" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="12">
         <v>27.9</v>
       </c>
-      <c r="D253" s="8">
+      <c r="D253" s="11">
         <v>71</v>
       </c>
-      <c r="E253" s="8">
+      <c r="E253" s="11">
         <v>1011.9</v>
       </c>
-      <c r="F253" s="8">
+      <c r="F253" s="11">
         <v>7</v>
       </c>
-      <c r="G253" s="8" t="s">
+      <c r="G253" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7414,19 +7471,19 @@
       <c r="B254" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C254" s="7">
+      <c r="C254" s="12">
         <v>27.1</v>
       </c>
-      <c r="D254" s="8">
+      <c r="D254" s="11">
         <v>72</v>
       </c>
-      <c r="E254" s="8">
+      <c r="E254" s="11">
         <v>1012.5</v>
       </c>
-      <c r="F254" s="8">
+      <c r="F254" s="11">
         <v>6</v>
       </c>
-      <c r="G254" s="8" t="s">
+      <c r="G254" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7437,19 +7494,19 @@
       <c r="B255" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="12">
         <v>28</v>
       </c>
-      <c r="D255" s="8">
+      <c r="D255" s="11">
         <v>69</v>
       </c>
-      <c r="E255" s="8">
+      <c r="E255" s="11">
         <v>1011.3</v>
       </c>
-      <c r="F255" s="8">
+      <c r="F255" s="11">
         <v>7</v>
       </c>
-      <c r="G255" s="8" t="s">
+      <c r="G255" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7460,19 +7517,19 @@
       <c r="B256" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="12">
         <v>26.8</v>
       </c>
-      <c r="D256" s="8">
+      <c r="D256" s="11">
         <v>75</v>
       </c>
-      <c r="E256" s="8">
+      <c r="E256" s="11">
         <v>1011.8</v>
       </c>
-      <c r="F256" s="8">
+      <c r="F256" s="11">
         <v>8</v>
       </c>
-      <c r="G256" s="8" t="s">
+      <c r="G256" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7483,19 +7540,19 @@
       <c r="B257" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C257" s="12">
         <v>27.6</v>
       </c>
-      <c r="D257" s="8">
+      <c r="D257" s="11">
         <v>74</v>
       </c>
-      <c r="E257" s="8">
+      <c r="E257" s="11">
         <v>1011.3</v>
       </c>
-      <c r="F257" s="8">
+      <c r="F257" s="11">
         <v>5</v>
       </c>
-      <c r="G257" s="8" t="s">
+      <c r="G257" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7506,19 +7563,19 @@
       <c r="B258" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C258" s="7">
+      <c r="C258" s="12">
         <v>28.1</v>
       </c>
-      <c r="D258" s="8">
+      <c r="D258" s="11">
         <v>73</v>
       </c>
-      <c r="E258" s="8">
+      <c r="E258" s="11">
         <v>1010.7</v>
       </c>
-      <c r="F258" s="8">
+      <c r="F258" s="11">
         <v>8</v>
       </c>
-      <c r="G258" s="8" t="s">
+      <c r="G258" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7529,19 +7586,19 @@
       <c r="B259" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="12">
         <v>27.9</v>
       </c>
-      <c r="D259" s="8">
+      <c r="D259" s="11">
         <v>63</v>
       </c>
-      <c r="E259" s="8">
+      <c r="E259" s="11">
         <v>1009.5</v>
       </c>
-      <c r="F259" s="8">
+      <c r="F259" s="11">
         <v>6</v>
       </c>
-      <c r="G259" s="8" t="s">
+      <c r="G259" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7552,19 +7609,19 @@
       <c r="B260" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C260" s="7">
+      <c r="C260" s="12">
         <v>28</v>
       </c>
-      <c r="D260" s="8">
+      <c r="D260" s="11">
         <v>74</v>
       </c>
-      <c r="E260" s="8">
+      <c r="E260" s="11">
         <v>1009.2</v>
       </c>
-      <c r="F260" s="8">
+      <c r="F260" s="11">
         <v>7</v>
       </c>
-      <c r="G260" s="8" t="s">
+      <c r="G260" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7575,19 +7632,19 @@
       <c r="B261" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="12">
         <v>28.2</v>
       </c>
-      <c r="D261" s="8">
+      <c r="D261" s="11">
         <v>74</v>
       </c>
-      <c r="E261" s="9">
+      <c r="E261" s="13">
         <v>1010.8</v>
       </c>
-      <c r="F261" s="8">
+      <c r="F261" s="11">
         <v>8</v>
       </c>
-      <c r="G261" s="8" t="s">
+      <c r="G261" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7598,19 +7655,19 @@
       <c r="B262" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="12">
         <v>29</v>
       </c>
-      <c r="D262" s="8">
+      <c r="D262" s="11">
         <v>71</v>
       </c>
-      <c r="E262" s="9">
+      <c r="E262" s="13">
         <v>1011.9</v>
       </c>
-      <c r="F262" s="8">
+      <c r="F262" s="11">
         <v>7</v>
       </c>
-      <c r="G262" s="8" t="s">
+      <c r="G262" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7621,19 +7678,19 @@
       <c r="B263" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C263" s="7">
+      <c r="C263" s="12">
         <v>27.4</v>
       </c>
-      <c r="D263" s="8">
+      <c r="D263" s="11">
         <v>83</v>
       </c>
-      <c r="E263" s="9">
+      <c r="E263" s="13">
         <v>1010.8</v>
       </c>
-      <c r="F263" s="8">
+      <c r="F263" s="11">
         <v>2</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G263" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7644,19 +7701,19 @@
       <c r="B264" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="12">
         <v>27.7</v>
       </c>
-      <c r="D264" s="8">
+      <c r="D264" s="11">
         <v>78</v>
       </c>
-      <c r="E264" s="9">
+      <c r="E264" s="13">
         <v>1010.1</v>
       </c>
-      <c r="F264" s="8">
+      <c r="F264" s="11">
         <v>4</v>
       </c>
-      <c r="G264" s="8" t="s">
+      <c r="G264" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7667,19 +7724,19 @@
       <c r="B265" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="12">
         <v>29.1</v>
       </c>
-      <c r="D265" s="8">
+      <c r="D265" s="11">
         <v>71</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E265" s="13">
         <v>1010.4</v>
       </c>
-      <c r="F265" s="8">
+      <c r="F265" s="11">
         <v>4</v>
       </c>
-      <c r="G265" s="8" t="s">
+      <c r="G265" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7690,19 +7747,19 @@
       <c r="B266" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C266" s="7">
+      <c r="C266" s="12">
         <v>29.5</v>
       </c>
-      <c r="D266" s="8">
+      <c r="D266" s="11">
         <v>64</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E266" s="13">
         <v>1010.2</v>
       </c>
-      <c r="F266" s="8">
+      <c r="F266" s="11">
         <v>7</v>
       </c>
-      <c r="G266" s="8" t="s">
+      <c r="G266" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7713,19 +7770,19 @@
       <c r="B267" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C267" s="7">
+      <c r="C267" s="12">
         <v>28</v>
       </c>
-      <c r="D267" s="8">
+      <c r="D267" s="11">
         <v>67</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E267" s="13">
         <v>1010.9</v>
       </c>
-      <c r="F267" s="8">
+      <c r="F267" s="11">
         <v>6</v>
       </c>
-      <c r="G267" s="8" t="s">
+      <c r="G267" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7736,19 +7793,19 @@
       <c r="B268" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C268" s="7">
+      <c r="C268" s="12">
         <v>27.3</v>
       </c>
-      <c r="D268" s="8">
+      <c r="D268" s="11">
         <v>68</v>
       </c>
-      <c r="E268" s="9">
+      <c r="E268" s="13">
         <v>1010.4</v>
       </c>
-      <c r="F268" s="8">
+      <c r="F268" s="11">
         <v>4</v>
       </c>
-      <c r="G268" s="8" t="s">
+      <c r="G268" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7759,19 +7816,19 @@
       <c r="B269" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="12">
         <v>27.4</v>
       </c>
-      <c r="D269" s="8">
+      <c r="D269" s="11">
         <v>72</v>
       </c>
-      <c r="E269" s="9">
+      <c r="E269" s="13">
         <v>1010.1</v>
       </c>
-      <c r="F269" s="8">
+      <c r="F269" s="11">
         <v>5</v>
       </c>
-      <c r="G269" s="8" t="s">
+      <c r="G269" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7782,19 +7839,19 @@
       <c r="B270" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C270" s="7">
+      <c r="C270" s="12">
         <v>28.2</v>
       </c>
-      <c r="D270" s="8">
+      <c r="D270" s="11">
         <v>72</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E270" s="13">
         <v>1009.4</v>
       </c>
-      <c r="F270" s="8">
+      <c r="F270" s="11">
         <v>7</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="G270" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7805,19 +7862,19 @@
       <c r="B271" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="12">
         <v>28</v>
       </c>
-      <c r="D271" s="8">
+      <c r="D271" s="11">
         <v>73</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E271" s="13">
         <v>1009.4</v>
       </c>
-      <c r="F271" s="8">
+      <c r="F271" s="11">
         <v>7</v>
       </c>
-      <c r="G271" s="8" t="s">
+      <c r="G271" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7828,19 +7885,19 @@
       <c r="B272" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C272" s="12">
         <v>29</v>
       </c>
-      <c r="D272" s="8">
+      <c r="D272" s="11">
         <v>73</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E272" s="13">
         <v>1009.9</v>
       </c>
-      <c r="F272" s="8">
+      <c r="F272" s="11">
         <v>4</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="G272" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7851,19 +7908,19 @@
       <c r="B273" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C273" s="12">
         <v>27.8</v>
       </c>
-      <c r="D273" s="8">
+      <c r="D273" s="11">
         <v>74</v>
       </c>
-      <c r="E273" s="9">
+      <c r="E273" s="13">
         <v>1010.3</v>
       </c>
-      <c r="F273" s="8">
+      <c r="F273" s="11">
         <v>6</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="G273" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7874,19 +7931,19 @@
       <c r="B274" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="12">
         <v>28</v>
       </c>
-      <c r="D274" s="8">
+      <c r="D274" s="11">
         <v>74</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E274" s="13">
         <v>1011.9</v>
       </c>
-      <c r="F274" s="8">
+      <c r="F274" s="11">
         <v>5</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="G274" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7897,19 +7954,19 @@
       <c r="B275" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="12">
         <v>27.9</v>
       </c>
-      <c r="D275" s="8">
+      <c r="D275" s="11">
         <v>75</v>
       </c>
-      <c r="E275" s="10">
+      <c r="E275" s="14">
         <v>1012.7</v>
       </c>
-      <c r="F275" s="8">
+      <c r="F275" s="11">
         <v>6</v>
       </c>
-      <c r="G275" s="7" t="s">
+      <c r="G275" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7920,19 +7977,19 @@
       <c r="B276" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C276" s="7">
+      <c r="C276" s="12">
         <v>25.6</v>
       </c>
-      <c r="D276" s="8">
+      <c r="D276" s="11">
         <v>72</v>
       </c>
-      <c r="E276" s="10">
+      <c r="E276" s="14">
         <v>1013</v>
       </c>
-      <c r="F276" s="8">
+      <c r="F276" s="11">
         <v>7</v>
       </c>
-      <c r="G276" s="7" t="s">
+      <c r="G276" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7943,19 +8000,19 @@
       <c r="B277" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="12">
         <v>28.4</v>
       </c>
-      <c r="D277" s="8">
+      <c r="D277" s="11">
         <v>72</v>
       </c>
-      <c r="E277" s="10">
+      <c r="E277" s="14">
         <v>1012.7</v>
       </c>
-      <c r="F277" s="8">
+      <c r="F277" s="11">
         <v>4</v>
       </c>
-      <c r="G277" s="7" t="s">
+      <c r="G277" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7966,19 +8023,19 @@
       <c r="B278" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C278" s="7">
+      <c r="C278" s="12">
         <v>28.2</v>
       </c>
-      <c r="D278" s="8">
+      <c r="D278" s="11">
         <v>70</v>
       </c>
-      <c r="E278" s="10">
+      <c r="E278" s="14">
         <v>1012.7</v>
       </c>
-      <c r="F278" s="8">
+      <c r="F278" s="11">
         <v>8</v>
       </c>
-      <c r="G278" s="7" t="s">
+      <c r="G278" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7989,19 +8046,19 @@
       <c r="B279" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="12">
         <v>27.4</v>
       </c>
-      <c r="D279" s="8">
+      <c r="D279" s="11">
         <v>71</v>
       </c>
-      <c r="E279" s="10">
+      <c r="E279" s="14">
         <v>1012.4</v>
       </c>
-      <c r="F279" s="8">
+      <c r="F279" s="11">
         <v>5</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="G279" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8012,19 +8069,19 @@
       <c r="B280" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="12">
         <v>27.8</v>
       </c>
-      <c r="D280" s="8">
+      <c r="D280" s="11">
         <v>71</v>
       </c>
-      <c r="E280" s="10">
+      <c r="E280" s="14">
         <v>1011.7</v>
       </c>
-      <c r="F280" s="8">
+      <c r="F280" s="11">
         <v>4</v>
       </c>
-      <c r="G280" s="7" t="s">
+      <c r="G280" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8035,19 +8092,19 @@
       <c r="B281" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="12">
         <v>28.4</v>
       </c>
-      <c r="D281" s="8">
+      <c r="D281" s="11">
         <v>74</v>
       </c>
-      <c r="E281" s="10">
+      <c r="E281" s="14">
         <v>1012</v>
       </c>
-      <c r="F281" s="8">
+      <c r="F281" s="11">
         <v>4</v>
       </c>
-      <c r="G281" s="7" t="s">
+      <c r="G281" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8058,19 +8115,19 @@
       <c r="B282" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="12">
         <v>28.3</v>
       </c>
-      <c r="D282" s="8">
+      <c r="D282" s="11">
         <v>72</v>
       </c>
-      <c r="E282" s="10">
+      <c r="E282" s="14">
         <v>1011.4</v>
       </c>
-      <c r="F282" s="8">
+      <c r="F282" s="11">
         <v>5</v>
       </c>
-      <c r="G282" s="7" t="s">
+      <c r="G282" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8081,19 +8138,19 @@
       <c r="B283" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="12">
         <v>28.4</v>
       </c>
-      <c r="D283" s="8">
+      <c r="D283" s="11">
         <v>73</v>
       </c>
-      <c r="E283" s="10">
+      <c r="E283" s="14">
         <v>1011.5</v>
       </c>
-      <c r="F283" s="8">
+      <c r="F283" s="11">
         <v>4</v>
       </c>
-      <c r="G283" s="7" t="s">
+      <c r="G283" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8104,19 +8161,19 @@
       <c r="B284" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="12">
         <v>28.1</v>
       </c>
-      <c r="D284" s="8">
+      <c r="D284" s="11">
         <v>73</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="14">
         <v>1012.1</v>
       </c>
-      <c r="F284" s="8">
+      <c r="F284" s="11">
         <v>5</v>
       </c>
-      <c r="G284" s="7" t="s">
+      <c r="G284" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8127,19 +8184,19 @@
       <c r="B285" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C285" s="7">
+      <c r="C285" s="17">
         <v>28</v>
       </c>
-      <c r="D285" s="8">
+      <c r="D285" s="16">
         <v>74</v>
       </c>
-      <c r="E285" s="10">
+      <c r="E285" s="18">
         <v>1012.9</v>
       </c>
-      <c r="F285" s="8">
+      <c r="F285" s="16">
         <v>4</v>
       </c>
-      <c r="G285" s="7" t="s">
+      <c r="G285" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8150,19 +8207,19 @@
       <c r="B286" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="17">
         <v>28.1</v>
       </c>
-      <c r="D286" s="8">
+      <c r="D286" s="16">
         <v>72</v>
       </c>
-      <c r="E286" s="10">
+      <c r="E286" s="18">
         <v>1012.7</v>
       </c>
-      <c r="F286" s="8">
+      <c r="F286" s="16">
         <v>5</v>
       </c>
-      <c r="G286" s="7" t="s">
+      <c r="G286" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8173,19 +8230,19 @@
       <c r="B287" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="17">
         <v>28.2</v>
       </c>
-      <c r="D287" s="8">
+      <c r="D287" s="16">
         <v>75</v>
       </c>
-      <c r="E287" s="10">
+      <c r="E287" s="18">
         <v>1012.1</v>
       </c>
-      <c r="F287" s="8">
-        <v>3</v>
-      </c>
-      <c r="G287" s="7" t="s">
+      <c r="F287" s="16">
+        <v>3</v>
+      </c>
+      <c r="G287" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8196,19 +8253,19 @@
       <c r="B288" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C288" s="7">
+      <c r="C288" s="17">
         <v>28.1</v>
       </c>
-      <c r="D288" s="8">
+      <c r="D288" s="16">
         <v>69</v>
       </c>
-      <c r="E288" s="10">
+      <c r="E288" s="18">
         <v>1011.5</v>
       </c>
-      <c r="F288" s="8">
+      <c r="F288" s="16">
         <v>5</v>
       </c>
-      <c r="G288" s="7" t="s">
+      <c r="G288" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8219,19 +8276,19 @@
       <c r="B289" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="17">
         <v>28.3</v>
       </c>
-      <c r="D289" s="8">
+      <c r="D289" s="16">
         <v>69</v>
       </c>
-      <c r="E289" s="10">
+      <c r="E289" s="18">
         <v>1010.8</v>
       </c>
-      <c r="F289" s="8">
+      <c r="F289" s="16">
         <v>5</v>
       </c>
-      <c r="G289" s="7" t="s">
+      <c r="G289" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8242,19 +8299,19 @@
       <c r="B290" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="17">
         <v>28.5</v>
       </c>
-      <c r="D290" s="8">
+      <c r="D290" s="16">
         <v>67</v>
       </c>
-      <c r="E290" s="10">
+      <c r="E290" s="18">
         <v>1010.7</v>
       </c>
-      <c r="F290" s="8">
+      <c r="F290" s="16">
         <v>5</v>
       </c>
-      <c r="G290" s="7" t="s">
+      <c r="G290" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8265,19 +8322,19 @@
       <c r="B291" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="17">
         <v>28.6</v>
       </c>
-      <c r="D291" s="8">
+      <c r="D291" s="16">
         <v>67</v>
       </c>
-      <c r="E291" s="10">
+      <c r="E291" s="18">
         <v>1011.1</v>
       </c>
-      <c r="F291" s="8">
+      <c r="F291" s="16">
         <v>6</v>
       </c>
-      <c r="G291" s="7" t="s">
+      <c r="G291" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8288,19 +8345,19 @@
       <c r="B292" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="17">
         <v>28.3</v>
       </c>
-      <c r="D292" s="8">
+      <c r="D292" s="16">
         <v>68</v>
       </c>
-      <c r="E292" s="10">
+      <c r="E292" s="18">
         <v>1011.7</v>
       </c>
-      <c r="F292" s="8">
+      <c r="F292" s="16">
         <v>6</v>
       </c>
-      <c r="G292" s="7" t="s">
+      <c r="G292" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8311,19 +8368,19 @@
       <c r="B293" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="17">
         <v>27.9</v>
       </c>
-      <c r="D293" s="8">
+      <c r="D293" s="16">
         <v>68</v>
       </c>
-      <c r="E293" s="1">
+      <c r="E293" s="15">
         <v>1011.1</v>
       </c>
-      <c r="F293" s="8">
+      <c r="F293" s="16">
         <v>5</v>
       </c>
-      <c r="G293" s="7" t="s">
+      <c r="G293" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8334,19 +8391,19 @@
       <c r="B294" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="17">
         <v>27.9</v>
       </c>
-      <c r="D294" s="8">
+      <c r="D294" s="16">
         <v>63</v>
       </c>
-      <c r="E294" s="10">
+      <c r="E294" s="18">
         <v>1010.1</v>
       </c>
-      <c r="F294" s="8">
+      <c r="F294" s="16">
         <v>6</v>
       </c>
-      <c r="G294" s="7" t="s">
+      <c r="G294" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8357,19 +8414,19 @@
       <c r="B295" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="17">
         <v>29.2</v>
       </c>
-      <c r="D295" s="8">
+      <c r="D295" s="16">
         <v>68</v>
       </c>
-      <c r="E295" s="10">
+      <c r="E295" s="18">
         <v>1009.5</v>
       </c>
-      <c r="F295" s="8">
+      <c r="F295" s="16">
         <v>5</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="G295" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8380,19 +8437,19 @@
       <c r="B296" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="17">
         <v>27.8</v>
       </c>
-      <c r="D296" s="8">
+      <c r="D296" s="16">
         <v>72</v>
       </c>
-      <c r="E296" s="10">
+      <c r="E296" s="18">
         <v>1010.4</v>
       </c>
-      <c r="F296" s="8">
+      <c r="F296" s="16">
         <v>5</v>
       </c>
-      <c r="G296" s="1" t="s">
+      <c r="G296" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8403,19 +8460,19 @@
       <c r="B297" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="17">
         <v>27.6</v>
       </c>
-      <c r="D297" s="8">
+      <c r="D297" s="16">
         <v>74</v>
       </c>
-      <c r="E297" s="10">
+      <c r="E297" s="18">
         <v>1009.8</v>
       </c>
-      <c r="F297" s="8">
+      <c r="F297" s="16">
         <v>6</v>
       </c>
-      <c r="G297" s="1" t="s">
+      <c r="G297" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8426,19 +8483,19 @@
       <c r="B298" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="17">
         <v>28</v>
       </c>
-      <c r="D298" s="8">
+      <c r="D298" s="16">
         <v>73</v>
       </c>
-      <c r="E298" s="10">
+      <c r="E298" s="18">
         <v>1010.3</v>
       </c>
-      <c r="F298" s="8">
+      <c r="F298" s="16">
         <v>5</v>
       </c>
-      <c r="G298" s="1" t="s">
+      <c r="G298" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8449,19 +8506,19 @@
       <c r="B299" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C299" s="7">
+      <c r="C299" s="17">
         <v>27.4</v>
       </c>
-      <c r="D299" s="8">
+      <c r="D299" s="16">
         <v>76</v>
       </c>
-      <c r="E299" s="10">
+      <c r="E299" s="18">
         <v>1010.4</v>
       </c>
-      <c r="F299" s="8">
+      <c r="F299" s="16">
         <v>4</v>
       </c>
-      <c r="G299" s="1" t="s">
+      <c r="G299" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8472,19 +8529,19 @@
       <c r="B300" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C300" s="7">
+      <c r="C300" s="17">
         <v>27.3</v>
       </c>
-      <c r="D300" s="8">
+      <c r="D300" s="16">
         <v>75</v>
       </c>
-      <c r="E300" s="10">
+      <c r="E300" s="18">
         <v>1010.3</v>
       </c>
-      <c r="F300" s="8">
+      <c r="F300" s="16">
         <v>5</v>
       </c>
-      <c r="G300" s="1" t="s">
+      <c r="G300" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8495,19 +8552,19 @@
       <c r="B301" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C301" s="7">
+      <c r="C301" s="17">
         <v>28</v>
       </c>
-      <c r="D301" s="8">
+      <c r="D301" s="16">
         <v>77</v>
       </c>
-      <c r="E301" s="10">
+      <c r="E301" s="18">
         <v>1010.3</v>
       </c>
-      <c r="F301" s="8">
+      <c r="F301" s="16">
         <v>4</v>
       </c>
-      <c r="G301" s="1" t="s">
+      <c r="G301" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8518,19 +8575,19 @@
       <c r="B302" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C302" s="7">
+      <c r="C302" s="17">
         <v>27.9</v>
       </c>
-      <c r="D302" s="8">
+      <c r="D302" s="16">
         <v>76</v>
       </c>
-      <c r="E302" s="10">
+      <c r="E302" s="18">
         <v>1010.8</v>
       </c>
-      <c r="F302" s="8">
+      <c r="F302" s="16">
         <v>4</v>
       </c>
-      <c r="G302" s="1" t="s">
+      <c r="G302" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8541,19 +8598,19 @@
       <c r="B303" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="17">
         <v>27.2</v>
       </c>
-      <c r="D303" s="8">
+      <c r="D303" s="16">
         <v>81</v>
       </c>
-      <c r="E303" s="10">
+      <c r="E303" s="18">
         <v>1011.3</v>
       </c>
-      <c r="F303" s="8">
+      <c r="F303" s="16">
         <v>2</v>
       </c>
-      <c r="G303" s="1" t="s">
+      <c r="G303" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8564,19 +8621,19 @@
       <c r="B304" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C304" s="7">
+      <c r="C304" s="17">
         <v>27.6</v>
       </c>
-      <c r="D304" s="8">
+      <c r="D304" s="16">
         <v>82</v>
       </c>
-      <c r="E304" s="10">
+      <c r="E304" s="18">
         <v>1011</v>
       </c>
-      <c r="F304" s="8">
+      <c r="F304" s="16">
         <v>2</v>
       </c>
-      <c r="G304" s="1" t="s">
+      <c r="G304" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8587,19 +8644,19 @@
       <c r="B305" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="17">
         <v>27.4</v>
       </c>
-      <c r="D305" s="8">
+      <c r="D305" s="16">
         <v>78</v>
       </c>
-      <c r="E305" s="10">
+      <c r="E305" s="18">
         <v>1010.5</v>
       </c>
-      <c r="F305" s="8">
-        <v>3</v>
-      </c>
-      <c r="G305" s="1" t="s">
+      <c r="F305" s="16">
+        <v>3</v>
+      </c>
+      <c r="G305" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8610,19 +8667,19 @@
       <c r="B306" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C306" s="7">
+      <c r="C306" s="17">
         <v>28.7</v>
       </c>
-      <c r="D306" s="8">
+      <c r="D306" s="16">
         <v>72</v>
       </c>
-      <c r="E306" s="7">
+      <c r="E306" s="17">
         <v>1010.6</v>
       </c>
-      <c r="F306" s="8">
+      <c r="F306" s="16">
         <v>4</v>
       </c>
-      <c r="G306" s="7" t="s">
+      <c r="G306" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8633,19 +8690,19 @@
       <c r="B307" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="17">
         <v>28.9</v>
       </c>
-      <c r="D307" s="8">
+      <c r="D307" s="16">
         <v>73</v>
       </c>
-      <c r="E307" s="10">
+      <c r="E307" s="18">
         <v>1010</v>
       </c>
-      <c r="F307" s="8">
+      <c r="F307" s="16">
         <v>4</v>
       </c>
-      <c r="G307" s="1" t="s">
+      <c r="G307" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8656,19 +8713,19 @@
       <c r="B308" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C308" s="7">
+      <c r="C308" s="17">
         <v>30.1</v>
       </c>
-      <c r="D308" s="8">
+      <c r="D308" s="16">
         <v>69</v>
       </c>
-      <c r="E308" s="10">
+      <c r="E308" s="18">
         <v>1009.6</v>
       </c>
-      <c r="F308" s="8">
-        <v>3</v>
-      </c>
-      <c r="G308" s="1" t="s">
+      <c r="F308" s="16">
+        <v>3</v>
+      </c>
+      <c r="G308" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8679,19 +8736,19 @@
       <c r="B309" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C309" s="7">
+      <c r="C309" s="17">
         <v>29.8</v>
       </c>
-      <c r="D309" s="8">
+      <c r="D309" s="16">
         <v>69</v>
       </c>
-      <c r="E309" s="10">
+      <c r="E309" s="18">
         <v>1009.2</v>
       </c>
-      <c r="F309" s="8">
-        <v>3</v>
-      </c>
-      <c r="G309" s="1" t="s">
+      <c r="F309" s="16">
+        <v>3</v>
+      </c>
+      <c r="G309" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8702,19 +8759,19 @@
       <c r="B310" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C310" s="7">
+      <c r="C310" s="17">
         <v>29</v>
       </c>
-      <c r="D310" s="8">
+      <c r="D310" s="16">
         <v>76</v>
       </c>
-      <c r="E310" s="10">
+      <c r="E310" s="18">
         <v>1009.1</v>
       </c>
-      <c r="F310" s="8">
+      <c r="F310" s="16">
         <v>4</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="G310" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8725,19 +8782,19 @@
       <c r="B311" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C311" s="7">
+      <c r="C311" s="17">
         <v>29.6</v>
       </c>
-      <c r="D311" s="8">
+      <c r="D311" s="16">
         <v>67</v>
       </c>
-      <c r="E311" s="10">
+      <c r="E311" s="18">
         <v>1009.5</v>
       </c>
-      <c r="F311" s="8">
+      <c r="F311" s="16">
         <v>4</v>
       </c>
-      <c r="G311" s="1" t="s">
+      <c r="G311" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8748,19 +8805,19 @@
       <c r="B312" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="17">
         <v>28.6</v>
       </c>
-      <c r="D312" s="8">
+      <c r="D312" s="16">
         <v>78</v>
       </c>
-      <c r="E312" s="10">
+      <c r="E312" s="18">
         <v>1010.7</v>
       </c>
-      <c r="F312" s="8">
-        <v>3</v>
-      </c>
-      <c r="G312" s="1" t="s">
+      <c r="F312" s="16">
+        <v>3</v>
+      </c>
+      <c r="G312" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8771,19 +8828,19 @@
       <c r="B313" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="17">
         <v>28.5</v>
       </c>
-      <c r="D313" s="8">
+      <c r="D313" s="16">
         <v>76</v>
       </c>
-      <c r="E313" s="10">
+      <c r="E313" s="18">
         <v>1010.8</v>
       </c>
-      <c r="F313" s="8">
-        <v>3</v>
-      </c>
-      <c r="G313" s="1" t="s">
+      <c r="F313" s="16">
+        <v>3</v>
+      </c>
+      <c r="G313" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8794,19 +8851,19 @@
       <c r="B314" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="17">
         <v>28.4</v>
       </c>
-      <c r="D314" s="8">
+      <c r="D314" s="16">
         <v>75</v>
       </c>
-      <c r="E314" s="10">
+      <c r="E314" s="18">
         <v>1009.3</v>
       </c>
-      <c r="F314" s="8">
-        <v>3</v>
-      </c>
-      <c r="G314" s="1" t="s">
+      <c r="F314" s="16">
+        <v>3</v>
+      </c>
+      <c r="G314" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8817,19 +8874,19 @@
       <c r="B315" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="17">
         <v>28.9</v>
       </c>
-      <c r="D315" s="8">
+      <c r="D315" s="16">
         <v>76</v>
       </c>
-      <c r="E315" s="10">
+      <c r="E315" s="18">
         <v>1008.8</v>
       </c>
-      <c r="F315" s="8">
+      <c r="F315" s="16">
         <v>4</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="G315" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8840,19 +8897,19 @@
       <c r="B316" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C316" s="7">
+      <c r="C316" s="17">
         <v>28.3</v>
       </c>
-      <c r="D316" s="8">
+      <c r="D316" s="16">
         <v>73</v>
       </c>
-      <c r="E316" s="10">
+      <c r="E316" s="18">
         <v>1009.8</v>
       </c>
-      <c r="F316" s="8">
-        <v>3</v>
-      </c>
-      <c r="G316" s="1" t="s">
+      <c r="F316" s="16">
+        <v>3</v>
+      </c>
+      <c r="G316" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8863,19 +8920,19 @@
       <c r="B317" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="17">
         <v>28.6</v>
       </c>
-      <c r="D317" s="8">
+      <c r="D317" s="16">
         <v>75</v>
       </c>
-      <c r="E317" s="10">
+      <c r="E317" s="18">
         <v>1010.4</v>
       </c>
-      <c r="F317" s="8">
+      <c r="F317" s="16">
         <v>4</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="G317" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8886,19 +8943,19 @@
       <c r="B318" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="17">
         <v>27</v>
       </c>
-      <c r="D318" s="8">
+      <c r="D318" s="16">
         <v>86</v>
       </c>
-      <c r="E318" s="10">
+      <c r="E318" s="18">
         <v>1010.5</v>
       </c>
-      <c r="F318" s="10">
-        <v>3</v>
-      </c>
-      <c r="G318" s="1" t="s">
+      <c r="F318" s="18">
+        <v>3</v>
+      </c>
+      <c r="G318" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8909,19 +8966,19 @@
       <c r="B319" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="17">
         <v>28.9</v>
       </c>
-      <c r="D319" s="8">
+      <c r="D319" s="16">
         <v>76</v>
       </c>
-      <c r="E319" s="10">
+      <c r="E319" s="18">
         <v>1009.2</v>
       </c>
-      <c r="F319" s="10">
+      <c r="F319" s="18">
         <v>4</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="G319" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8932,19 +8989,19 @@
       <c r="B320" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="17">
         <v>27.9</v>
       </c>
-      <c r="D320" s="8">
+      <c r="D320" s="16">
         <v>82</v>
       </c>
-      <c r="E320" s="10">
+      <c r="E320" s="18">
         <v>1009</v>
       </c>
-      <c r="F320" s="10">
+      <c r="F320" s="18">
         <v>4</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="G320" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8955,19 +9012,19 @@
       <c r="B321" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="20">
         <v>27.3</v>
       </c>
-      <c r="D321" s="8">
+      <c r="D321" s="19">
         <v>83</v>
       </c>
-      <c r="E321" s="10">
+      <c r="E321" s="21">
         <v>1009.8</v>
       </c>
-      <c r="F321" s="10">
+      <c r="F321" s="21">
         <v>4</v>
       </c>
-      <c r="G321" s="1" t="s">
+      <c r="G321" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8978,19 +9035,19 @@
       <c r="B322" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C322" s="7">
+      <c r="C322" s="20">
         <v>27.5</v>
       </c>
-      <c r="D322" s="8">
+      <c r="D322" s="19">
         <v>81</v>
       </c>
-      <c r="E322" s="10">
+      <c r="E322" s="21">
         <v>1009.9</v>
       </c>
-      <c r="F322" s="10">
-        <v>3</v>
-      </c>
-      <c r="G322" s="1" t="s">
+      <c r="F322" s="21">
+        <v>3</v>
+      </c>
+      <c r="G322" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9001,19 +9058,19 @@
       <c r="B323" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C323" s="7">
+      <c r="C323" s="20">
         <v>27.8</v>
       </c>
-      <c r="D323" s="8">
+      <c r="D323" s="19">
         <v>83</v>
       </c>
-      <c r="E323" s="10">
+      <c r="E323" s="21">
         <v>1009.7</v>
       </c>
-      <c r="F323" s="10">
-        <v>3</v>
-      </c>
-      <c r="G323" s="1" t="s">
+      <c r="F323" s="21">
+        <v>3</v>
+      </c>
+      <c r="G323" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9024,19 +9081,19 @@
       <c r="B324" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C324" s="7">
+      <c r="C324" s="20">
         <v>27.2</v>
       </c>
-      <c r="D324" s="8">
+      <c r="D324" s="19">
         <v>86</v>
       </c>
-      <c r="E324" s="10">
+      <c r="E324" s="21">
         <v>1009.7</v>
       </c>
-      <c r="F324" s="10">
-        <v>3</v>
-      </c>
-      <c r="G324" s="1" t="s">
+      <c r="F324" s="21">
+        <v>3</v>
+      </c>
+      <c r="G324" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9047,19 +9104,19 @@
       <c r="B325" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C325" s="7">
+      <c r="C325" s="20">
         <v>27.5</v>
       </c>
-      <c r="D325" s="8">
+      <c r="D325" s="19">
         <v>82</v>
       </c>
-      <c r="E325" s="10">
+      <c r="E325" s="21">
         <v>1008.9</v>
       </c>
-      <c r="F325" s="10">
+      <c r="F325" s="21">
         <v>4</v>
       </c>
-      <c r="G325" s="1" t="s">
+      <c r="G325" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9070,19 +9127,19 @@
       <c r="B326" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C326" s="7">
+      <c r="C326" s="20">
         <v>27.2</v>
       </c>
-      <c r="D326" s="8">
+      <c r="D326" s="19">
         <v>84</v>
       </c>
-      <c r="E326" s="10">
+      <c r="E326" s="21">
         <v>1008.3</v>
       </c>
-      <c r="F326" s="10">
+      <c r="F326" s="21">
         <v>4</v>
       </c>
-      <c r="G326" s="1" t="s">
+      <c r="G326" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9093,19 +9150,19 @@
       <c r="B327" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C327" s="20">
         <v>28</v>
       </c>
-      <c r="D327" s="8">
+      <c r="D327" s="19">
         <v>80</v>
       </c>
-      <c r="E327" s="10">
+      <c r="E327" s="21">
         <v>1008.1</v>
       </c>
-      <c r="F327" s="10">
+      <c r="F327" s="21">
         <v>2</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="G327" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9116,19 +9173,19 @@
       <c r="B328" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C328" s="7">
+      <c r="C328" s="20">
         <v>27.2</v>
       </c>
-      <c r="D328" s="8">
+      <c r="D328" s="19">
         <v>84</v>
       </c>
-      <c r="E328" s="10">
+      <c r="E328" s="21">
         <v>1008.8</v>
       </c>
-      <c r="F328" s="10">
+      <c r="F328" s="21">
         <v>2</v>
       </c>
-      <c r="G328" s="1" t="s">
+      <c r="G328" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9139,19 +9196,19 @@
       <c r="B329" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C329" s="7">
+      <c r="C329" s="20">
         <v>26.9</v>
       </c>
-      <c r="D329" s="8">
+      <c r="D329" s="19">
         <v>89</v>
       </c>
-      <c r="E329" s="10">
+      <c r="E329" s="21">
         <v>1009.1</v>
       </c>
-      <c r="F329" s="10">
-        <v>3</v>
-      </c>
-      <c r="G329" s="1" t="s">
+      <c r="F329" s="21">
+        <v>3</v>
+      </c>
+      <c r="G329" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9162,19 +9219,19 @@
       <c r="B330" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C330" s="7">
+      <c r="C330" s="20">
         <v>27.4</v>
       </c>
-      <c r="D330" s="8">
+      <c r="D330" s="19">
         <v>84</v>
       </c>
-      <c r="E330" s="10">
+      <c r="E330" s="21">
         <v>1008.4</v>
       </c>
-      <c r="F330" s="10">
+      <c r="F330" s="21">
         <v>5</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="G330" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9185,19 +9242,19 @@
       <c r="B331" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C331" s="7">
+      <c r="C331" s="20">
         <v>26.1</v>
       </c>
-      <c r="D331" s="8">
+      <c r="D331" s="19">
         <v>91</v>
       </c>
-      <c r="E331" s="10">
+      <c r="E331" s="21">
         <v>1009.4</v>
       </c>
-      <c r="F331" s="10">
-        <v>3</v>
-      </c>
-      <c r="G331" s="1" t="s">
+      <c r="F331" s="21">
+        <v>3</v>
+      </c>
+      <c r="G331" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9208,19 +9265,19 @@
       <c r="B332" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C332" s="20">
         <v>27.4</v>
       </c>
-      <c r="D332" s="8">
+      <c r="D332" s="19">
         <v>82</v>
       </c>
-      <c r="E332" s="10">
+      <c r="E332" s="21">
         <v>1998.3</v>
       </c>
-      <c r="F332" s="10">
+      <c r="F332" s="21">
         <v>4</v>
       </c>
-      <c r="G332" s="1" t="s">
+      <c r="G332" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9231,19 +9288,19 @@
       <c r="B333" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C333" s="20">
         <v>28.3</v>
       </c>
-      <c r="D333" s="8">
+      <c r="D333" s="19">
         <v>80</v>
       </c>
-      <c r="E333" s="10">
+      <c r="E333" s="21">
         <v>1010.8</v>
       </c>
-      <c r="F333" s="10">
+      <c r="F333" s="21">
         <v>2</v>
       </c>
-      <c r="G333" s="1" t="s">
+      <c r="G333" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9254,19 +9311,19 @@
       <c r="B334" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C334" s="20">
         <v>26.2</v>
       </c>
-      <c r="D334" s="8">
+      <c r="D334" s="19">
         <v>90</v>
       </c>
-      <c r="E334" s="10">
+      <c r="E334" s="21">
         <v>1012</v>
       </c>
-      <c r="F334" s="10">
-        <v>3</v>
-      </c>
-      <c r="G334" s="1" t="s">
+      <c r="F334" s="21">
+        <v>3</v>
+      </c>
+      <c r="G334" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9277,19 +9334,19 @@
       <c r="B335" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="20">
         <v>27.3</v>
       </c>
-      <c r="D335" s="8">
+      <c r="D335" s="19">
         <v>84</v>
       </c>
-      <c r="E335" s="10">
+      <c r="E335" s="21">
         <v>1010.4</v>
       </c>
-      <c r="F335" s="10">
-        <v>3</v>
-      </c>
-      <c r="G335" s="1" t="s">
+      <c r="F335" s="21">
+        <v>3</v>
+      </c>
+      <c r="G335" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9300,19 +9357,19 @@
       <c r="B336" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="20">
         <v>27.9</v>
       </c>
-      <c r="D336" s="8">
+      <c r="D336" s="19">
         <v>82</v>
       </c>
-      <c r="E336" s="10">
+      <c r="E336" s="21">
         <v>1010.4</v>
       </c>
-      <c r="F336" s="10">
-        <v>3</v>
-      </c>
-      <c r="G336" s="1" t="s">
+      <c r="F336" s="21">
+        <v>3</v>
+      </c>
+      <c r="G336" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9323,19 +9380,19 @@
       <c r="B337" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="20">
         <v>28</v>
       </c>
-      <c r="D337" s="8">
+      <c r="D337" s="19">
         <v>78</v>
       </c>
-      <c r="E337" s="10">
+      <c r="E337" s="21">
         <v>1010.8</v>
       </c>
-      <c r="F337" s="10">
+      <c r="F337" s="21">
         <v>4</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="G337" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9346,19 +9403,19 @@
       <c r="B338" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="20">
         <v>26.7</v>
       </c>
-      <c r="D338" s="8">
+      <c r="D338" s="19">
         <v>84</v>
       </c>
-      <c r="E338" s="10">
+      <c r="E338" s="21">
         <v>1010.8</v>
       </c>
-      <c r="F338" s="10">
-        <v>3</v>
-      </c>
-      <c r="G338" s="1" t="s">
+      <c r="F338" s="21">
+        <v>3</v>
+      </c>
+      <c r="G338" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9369,20 +9426,20 @@
       <c r="B339" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C339" s="7">
+      <c r="C339" s="20">
         <v>28</v>
       </c>
-      <c r="D339" s="8">
+      <c r="D339" s="19">
         <v>82</v>
       </c>
-      <c r="E339" s="10">
+      <c r="E339" s="21">
         <v>1010.1</v>
       </c>
-      <c r="F339" s="10">
-        <v>3</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>34</v>
+      <c r="F339" s="21">
+        <v>3</v>
+      </c>
+      <c r="G339" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9392,19 +9449,19 @@
       <c r="B340" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="20">
         <v>28.2</v>
       </c>
-      <c r="D340" s="8">
+      <c r="D340" s="19">
         <v>80</v>
       </c>
-      <c r="E340" s="10">
+      <c r="E340" s="21">
         <v>1010.1</v>
       </c>
-      <c r="F340" s="10">
-        <v>3</v>
-      </c>
-      <c r="G340" s="1" t="s">
+      <c r="F340" s="21">
+        <v>3</v>
+      </c>
+      <c r="G340" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9415,20 +9472,20 @@
       <c r="B341" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C341" s="7">
+      <c r="C341" s="20">
         <v>27.5</v>
       </c>
-      <c r="D341" s="8">
+      <c r="D341" s="19">
         <v>82</v>
       </c>
-      <c r="E341" s="10">
+      <c r="E341" s="21">
         <v>1010.4</v>
       </c>
-      <c r="F341" s="10">
+      <c r="F341" s="21">
         <v>4</v>
       </c>
-      <c r="G341" s="1" t="s">
-        <v>35</v>
+      <c r="G341" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9438,19 +9495,19 @@
       <c r="B342" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C342" s="7">
+      <c r="C342" s="20">
         <v>27.5</v>
       </c>
-      <c r="D342" s="8">
+      <c r="D342" s="19">
         <v>86</v>
       </c>
-      <c r="E342" s="10">
+      <c r="E342" s="21">
         <v>1010.2</v>
       </c>
-      <c r="F342" s="10">
-        <v>3</v>
-      </c>
-      <c r="G342" s="1" t="s">
+      <c r="F342" s="21">
+        <v>3</v>
+      </c>
+      <c r="G342" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9461,19 +9518,19 @@
       <c r="B343" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C343" s="7">
+      <c r="C343" s="20">
         <v>27.9</v>
       </c>
-      <c r="D343" s="8">
+      <c r="D343" s="19">
         <v>83</v>
       </c>
-      <c r="E343" s="10">
+      <c r="E343" s="21">
         <v>1011.1</v>
       </c>
-      <c r="F343" s="10">
-        <v>3</v>
-      </c>
-      <c r="G343" s="1" t="s">
+      <c r="F343" s="21">
+        <v>3</v>
+      </c>
+      <c r="G343" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9484,19 +9541,19 @@
       <c r="B344" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C344" s="7">
+      <c r="C344" s="20">
         <v>28.6</v>
       </c>
-      <c r="D344" s="8">
+      <c r="D344" s="19">
         <v>79</v>
       </c>
-      <c r="E344" s="10">
+      <c r="E344" s="21">
         <v>1010.5</v>
       </c>
-      <c r="F344" s="10">
-        <v>3</v>
-      </c>
-      <c r="G344" s="1" t="s">
+      <c r="F344" s="21">
+        <v>3</v>
+      </c>
+      <c r="G344" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9507,19 +9564,19 @@
       <c r="B345" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C345" s="7">
+      <c r="C345" s="20">
         <v>25.4</v>
       </c>
-      <c r="D345" s="8">
+      <c r="D345" s="19">
         <v>95</v>
       </c>
-      <c r="E345" s="10">
+      <c r="E345" s="21">
         <v>1010.6</v>
       </c>
-      <c r="F345" s="10">
+      <c r="F345" s="21">
         <v>2</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="G345" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9530,19 +9587,19 @@
       <c r="B346" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C346" s="7">
+      <c r="C346" s="20">
         <v>27.6</v>
       </c>
-      <c r="D346" s="8">
+      <c r="D346" s="19">
         <v>83</v>
       </c>
-      <c r="E346" s="10">
+      <c r="E346" s="21">
         <v>1009.4</v>
       </c>
-      <c r="F346" s="10">
-        <v>3</v>
-      </c>
-      <c r="G346" s="1" t="s">
+      <c r="F346" s="21">
+        <v>3</v>
+      </c>
+      <c r="G346" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9553,19 +9610,19 @@
       <c r="B347" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C347" s="7">
+      <c r="C347" s="20">
         <v>27.2</v>
       </c>
-      <c r="D347" s="8">
+      <c r="D347" s="19">
         <v>86</v>
       </c>
-      <c r="E347" s="10">
+      <c r="E347" s="21">
         <v>1009.8</v>
       </c>
-      <c r="F347" s="10">
+      <c r="F347" s="21">
         <v>5</v>
       </c>
-      <c r="G347" s="1" t="s">
+      <c r="G347" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9576,19 +9633,19 @@
       <c r="B348" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C348" s="7">
+      <c r="C348" s="20">
         <v>26.9</v>
       </c>
-      <c r="D348" s="8">
+      <c r="D348" s="19">
         <v>85</v>
       </c>
-      <c r="E348" s="10">
+      <c r="E348" s="21">
         <v>1010.2</v>
       </c>
-      <c r="F348" s="10">
+      <c r="F348" s="21">
         <v>5</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="G348" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9599,19 +9656,19 @@
       <c r="B349" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C349" s="7">
+      <c r="C349" s="20">
         <v>27</v>
       </c>
-      <c r="D349" s="8">
+      <c r="D349" s="19">
         <v>87</v>
       </c>
-      <c r="E349" s="10">
+      <c r="E349" s="21">
         <v>1009.8</v>
       </c>
-      <c r="F349" s="10">
+      <c r="F349" s="21">
         <v>4</v>
       </c>
-      <c r="G349" s="1" t="s">
+      <c r="G349" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9622,19 +9679,19 @@
       <c r="B350" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C350" s="7">
+      <c r="C350" s="20">
         <v>27.6</v>
       </c>
-      <c r="D350" s="8">
+      <c r="D350" s="19">
         <v>80</v>
       </c>
-      <c r="E350" s="10">
+      <c r="E350" s="21">
         <v>1009.9</v>
       </c>
-      <c r="F350" s="10">
+      <c r="F350" s="21">
         <v>6</v>
       </c>
-      <c r="G350" s="1" t="s">
+      <c r="G350" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9645,19 +9702,19 @@
       <c r="B351" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C351" s="7">
+      <c r="C351" s="20">
         <v>26</v>
       </c>
-      <c r="D351" s="8">
+      <c r="D351" s="19">
         <v>87.5</v>
       </c>
-      <c r="E351" s="10">
+      <c r="E351" s="21">
         <v>1011.1</v>
       </c>
-      <c r="F351" s="10">
+      <c r="F351" s="21">
         <v>6</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="G351" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9668,19 +9725,19 @@
       <c r="B352" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C352" s="7">
+      <c r="C352" s="20">
         <v>25.6</v>
       </c>
-      <c r="D352" s="8">
+      <c r="D352" s="19">
         <v>87.8</v>
       </c>
-      <c r="E352" s="10">
+      <c r="E352" s="21">
         <v>1010.9</v>
       </c>
-      <c r="F352" s="10">
+      <c r="F352" s="21">
         <v>4</v>
       </c>
-      <c r="G352" s="1" t="s">
+      <c r="G352" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9691,19 +9748,19 @@
       <c r="B353" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C353" s="7">
+      <c r="C353" s="20">
         <v>27</v>
       </c>
-      <c r="D353" s="8">
+      <c r="D353" s="19">
         <v>82.3</v>
       </c>
-      <c r="E353" s="10">
+      <c r="E353" s="21">
         <v>1011.7</v>
       </c>
-      <c r="F353" s="10">
+      <c r="F353" s="21">
         <v>5</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="G353" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9714,19 +9771,19 @@
       <c r="B354" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C354" s="7">
+      <c r="C354" s="20">
         <v>26.2</v>
       </c>
-      <c r="D354" s="8">
+      <c r="D354" s="19">
         <v>87.3</v>
       </c>
-      <c r="E354" s="10">
+      <c r="E354" s="21">
         <v>1012.1</v>
       </c>
-      <c r="F354" s="10">
-        <v>3</v>
-      </c>
-      <c r="G354" s="1" t="s">
+      <c r="F354" s="21">
+        <v>3</v>
+      </c>
+      <c r="G354" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9737,19 +9794,19 @@
       <c r="B355" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C355" s="7">
+      <c r="C355" s="20">
         <v>27.5</v>
       </c>
-      <c r="D355" s="8">
+      <c r="D355" s="19">
         <v>81.3</v>
       </c>
-      <c r="E355" s="10">
+      <c r="E355" s="21">
         <v>1010.7</v>
       </c>
-      <c r="F355" s="10">
+      <c r="F355" s="21">
         <v>5</v>
       </c>
-      <c r="G355" s="1" t="s">
+      <c r="G355" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9760,19 +9817,19 @@
       <c r="B356" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C356" s="7">
+      <c r="C356" s="20">
         <v>27.3</v>
       </c>
-      <c r="D356" s="8">
+      <c r="D356" s="19">
         <v>82.3</v>
       </c>
-      <c r="E356" s="10">
+      <c r="E356" s="21">
         <v>1010.8</v>
       </c>
-      <c r="F356" s="10">
+      <c r="F356" s="21">
         <v>4</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="G356" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9783,20 +9840,20 @@
       <c r="B357" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C357" s="7">
+      <c r="C357" s="24">
         <v>27.8</v>
       </c>
-      <c r="D357" s="8">
+      <c r="D357" s="23">
         <v>82.8</v>
       </c>
-      <c r="E357" s="10">
+      <c r="E357" s="25">
         <v>1011.6</v>
       </c>
-      <c r="F357" s="10">
-        <v>3</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>36</v>
+      <c r="F357" s="25">
+        <v>3</v>
+      </c>
+      <c r="G357" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9806,19 +9863,19 @@
       <c r="B358" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C358" s="7">
+      <c r="C358" s="24">
         <v>28.5</v>
       </c>
-      <c r="D358" s="8">
+      <c r="D358" s="23">
         <v>91.8</v>
       </c>
-      <c r="E358" s="10">
+      <c r="E358" s="25">
         <v>1011</v>
       </c>
-      <c r="F358" s="10">
-        <v>3</v>
-      </c>
-      <c r="G358" s="1" t="s">
+      <c r="F358" s="25">
+        <v>3</v>
+      </c>
+      <c r="G358" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9829,19 +9886,19 @@
       <c r="B359" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C359" s="7">
+      <c r="C359" s="24">
         <v>25.1</v>
       </c>
-      <c r="D359" s="8">
+      <c r="D359" s="23">
         <v>87</v>
       </c>
-      <c r="E359" s="10">
+      <c r="E359" s="25">
         <v>1011.7</v>
       </c>
-      <c r="F359" s="10">
+      <c r="F359" s="25">
         <v>2</v>
       </c>
-      <c r="G359" s="1" t="s">
+      <c r="G359" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9852,19 +9909,19 @@
       <c r="B360" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C360" s="7">
+      <c r="C360" s="24">
         <v>26.5</v>
       </c>
-      <c r="D360" s="8">
+      <c r="D360" s="23">
         <v>83.5</v>
       </c>
-      <c r="E360" s="10">
+      <c r="E360" s="25">
         <v>1011.1</v>
       </c>
-      <c r="F360" s="10">
-        <v>3</v>
-      </c>
-      <c r="G360" s="1" t="s">
+      <c r="F360" s="25">
+        <v>3</v>
+      </c>
+      <c r="G360" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9875,20 +9932,20 @@
       <c r="B361" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C361" s="7">
+      <c r="C361" s="24">
         <v>27.9</v>
       </c>
-      <c r="D361" s="8">
+      <c r="D361" s="23">
         <v>81.3</v>
       </c>
-      <c r="E361" s="10">
+      <c r="E361" s="25">
         <v>1011.6</v>
       </c>
-      <c r="F361" s="10">
+      <c r="F361" s="25">
         <v>4</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>34</v>
+      <c r="G361" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9898,20 +9955,20 @@
       <c r="B362" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C362" s="7">
+      <c r="C362" s="24">
         <v>27.8</v>
       </c>
-      <c r="D362" s="8">
+      <c r="D362" s="23">
         <v>82.5</v>
       </c>
-      <c r="E362" s="10">
+      <c r="E362" s="25">
         <v>1012.5</v>
       </c>
-      <c r="F362" s="10">
-        <v>3</v>
-      </c>
-      <c r="G362" s="1" t="s">
-        <v>36</v>
+      <c r="F362" s="25">
+        <v>3</v>
+      </c>
+      <c r="G362" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9921,20 +9978,20 @@
       <c r="B363" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C363" s="7">
+      <c r="C363" s="24">
         <v>27.4</v>
       </c>
-      <c r="D363" s="8">
+      <c r="D363" s="23">
         <v>85.5</v>
       </c>
-      <c r="E363" s="10">
+      <c r="E363" s="25">
         <v>1013.2</v>
       </c>
-      <c r="F363" s="10">
-        <v>3</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>36</v>
+      <c r="F363" s="25">
+        <v>3</v>
+      </c>
+      <c r="G363" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9944,20 +10001,20 @@
       <c r="B364" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C364" s="7">
+      <c r="C364" s="24">
         <v>27.8</v>
       </c>
-      <c r="D364" s="8">
+      <c r="D364" s="23">
         <v>84.3</v>
       </c>
-      <c r="E364" s="10">
+      <c r="E364" s="25">
         <v>1012.2</v>
       </c>
-      <c r="F364" s="10">
+      <c r="F364" s="25">
         <v>5</v>
       </c>
-      <c r="G364" s="1" t="s">
-        <v>34</v>
+      <c r="G364" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9967,19 +10024,19 @@
       <c r="B365" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C365" s="7">
+      <c r="C365" s="24">
         <v>26.2</v>
       </c>
-      <c r="D365" s="8">
+      <c r="D365" s="23">
         <v>91.3</v>
       </c>
-      <c r="E365" s="10">
+      <c r="E365" s="25">
         <v>1012</v>
       </c>
-      <c r="F365" s="10">
+      <c r="F365" s="25">
         <v>5</v>
       </c>
-      <c r="G365" s="1" t="s">
+      <c r="G365" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9990,33 +10047,21 @@
       <c r="B366" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C366" s="7">
+      <c r="C366" s="24">
         <v>26.8</v>
       </c>
-      <c r="D366" s="8">
+      <c r="D366" s="23">
         <v>93.5</v>
       </c>
-      <c r="E366" s="10">
+      <c r="E366" s="25">
         <v>1012.4</v>
       </c>
-      <c r="F366" s="10">
+      <c r="F366" s="25">
         <v>4</v>
       </c>
-      <c r="G366" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="7"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="7"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="7"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="7"/>
+      <c r="G366" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
